--- a/DefaultOrderExportReport_Jan182019.xlsx
+++ b/DefaultOrderExportReport_Jan182019.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="327">
   <si>
     <t>﻿Order ID</t>
   </si>
@@ -178,12 +178,21 @@
     <t>Refund Amount</t>
   </si>
   <si>
+    <t>5505</t>
+  </si>
+  <si>
+    <t>4224</t>
+  </si>
+  <si>
     <t>One One</t>
   </si>
   <si>
     <t>one@comcast.net</t>
   </si>
   <si>
+    <t>1111111111</t>
+  </si>
+  <si>
     <t>11/01/2019</t>
   </si>
   <si>
@@ -193,6 +202,9 @@
     <t>29.98</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>6.99</t>
   </si>
   <si>
@@ -205,9 +217,15 @@
     <t>Authorize.net</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>3.17</t>
   </si>
   <si>
@@ -223,18 +241,30 @@
     <t>NH</t>
   </si>
   <si>
+    <t>3110</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
     <t>Product ID: 127, Product Qty: 2, Product SKU: BK_MedMenu, Product Name: Oldways 4-Week Mediterranean Diet Menu Plan Book, Product Weight: 0.8000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 29.98</t>
   </si>
   <si>
+    <t>5506</t>
+  </si>
+  <si>
+    <t>4225</t>
+  </si>
+  <si>
     <t>Two Two</t>
   </si>
   <si>
     <t>two@comcast.net</t>
   </si>
   <si>
+    <t>2222222222</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -253,15 +283,27 @@
     <t>GA</t>
   </si>
   <si>
+    <t>30004</t>
+  </si>
+  <si>
     <t>Product ID: 140, Product Qty: 1, Product SKU: BK_EMedMenu, Product Name: Oldways 4-Week Mediterranean Diet Menu Plan E-Book, Product Weight: 0.0000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
   </si>
   <si>
+    <t>5507</t>
+  </si>
+  <si>
+    <t>4226</t>
+  </si>
+  <si>
     <t>Three Three</t>
   </si>
   <si>
     <t>three@usu.edu</t>
   </si>
   <si>
+    <t>3333333333</t>
+  </si>
+  <si>
     <t>Three</t>
   </si>
   <si>
@@ -274,12 +316,24 @@
     <t>UT</t>
   </si>
   <si>
+    <t>84332</t>
+  </si>
+  <si>
+    <t>5508</t>
+  </si>
+  <si>
+    <t>4227</t>
+  </si>
+  <si>
     <t>Four Four</t>
   </si>
   <si>
     <t>four@neufeldnw.com</t>
   </si>
   <si>
+    <t>4444444444</t>
+  </si>
+  <si>
     <t>19.99</t>
   </si>
   <si>
@@ -307,15 +361,27 @@
     <t>WA</t>
   </si>
   <si>
+    <t>98225</t>
+  </si>
+  <si>
     <t>Product ID: 136, Product Qty: 1, Product SKU: BU_MedBundle, Product Name: Mediterranean Diet Discount Bundle, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 19.99, Product Total Price: 19.99</t>
   </si>
   <si>
+    <t>5509</t>
+  </si>
+  <si>
+    <t>4228</t>
+  </si>
+  <si>
     <t>Five Five</t>
   </si>
   <si>
     <t>five@gmail.com</t>
   </si>
   <si>
+    <t>5555555555</t>
+  </si>
+  <si>
     <t>18.98</t>
   </si>
   <si>
@@ -331,15 +397,27 @@
     <t>IN</t>
   </si>
   <si>
+    <t>46530</t>
+  </si>
+  <si>
     <t>Product ID: 127, Product Qty: 1, Product SKU: BK_MedMenu, Product Name: Oldways 4-Week Mediterranean Diet Menu Plan Book, Product Weight: 0.8000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
   </si>
   <si>
+    <t>5511</t>
+  </si>
+  <si>
+    <t>4229</t>
+  </si>
+  <si>
     <t>Six Six</t>
   </si>
   <si>
     <t>six@gmail.com</t>
   </si>
   <si>
+    <t>6666666666</t>
+  </si>
+  <si>
     <t>Six</t>
   </si>
   <si>
@@ -352,12 +430,24 @@
     <t>CA</t>
   </si>
   <si>
+    <t>92028</t>
+  </si>
+  <si>
+    <t>5512</t>
+  </si>
+  <si>
+    <t>4230</t>
+  </si>
+  <si>
     <t>Seven Seven</t>
   </si>
   <si>
     <t>seven@gmail.com</t>
   </si>
   <si>
+    <t>7777777777</t>
+  </si>
+  <si>
     <t>12/01/2019</t>
   </si>
   <si>
@@ -373,12 +463,24 @@
     <t>Hillsborough</t>
   </si>
   <si>
+    <t>94010</t>
+  </si>
+  <si>
+    <t>5513</t>
+  </si>
+  <si>
+    <t>4231</t>
+  </si>
+  <si>
     <t>Eight Eight</t>
   </si>
   <si>
     <t>eight@hotmail.com</t>
   </si>
   <si>
+    <t>8888888888</t>
+  </si>
+  <si>
     <t>Eight</t>
   </si>
   <si>
@@ -391,12 +493,24 @@
     <t>NC</t>
   </si>
   <si>
+    <t>27958</t>
+  </si>
+  <si>
+    <t>5515</t>
+  </si>
+  <si>
+    <t>4232</t>
+  </si>
+  <si>
     <t>Nine Nine</t>
   </si>
   <si>
     <t>nine@att.net</t>
   </si>
   <si>
+    <t>9999999999</t>
+  </si>
+  <si>
     <t>Nine</t>
   </si>
   <si>
@@ -409,12 +523,24 @@
     <t>OK</t>
   </si>
   <si>
+    <t>73064</t>
+  </si>
+  <si>
+    <t>5516</t>
+  </si>
+  <si>
+    <t>4233</t>
+  </si>
+  <si>
     <t>Ten Ten</t>
   </si>
   <si>
     <t>ten@gmail.com</t>
   </si>
   <si>
+    <t>1010101010</t>
+  </si>
+  <si>
     <t>Ten</t>
   </si>
   <si>
@@ -427,12 +553,24 @@
     <t>TX</t>
   </si>
   <si>
+    <t>75201</t>
+  </si>
+  <si>
+    <t>5517</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
     <t>Eleven Eleven</t>
   </si>
   <si>
     <t>eleven@cox.net</t>
   </si>
   <si>
+    <t>5111111111</t>
+  </si>
+  <si>
     <t>Eleven</t>
   </si>
   <si>
@@ -445,15 +583,27 @@
     <t>VA</t>
   </si>
   <si>
+    <t>23505</t>
+  </si>
+  <si>
     <t>Product ID: 131, Product Qty: 1, Product SKU: BK_VegMenu, Product Name: Oldways 4-Week Vegetarian &amp; Vegan Diet Menu Plan Book, Product Weight: 0.8000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99|Product ID: 148, Product Qty: 1, Product SKU: BK_WHOLEGRAINS, Product Name: Whole Grains Around the World, Product Weight: 0.5000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
   </si>
   <si>
+    <t>5518</t>
+  </si>
+  <si>
+    <t>4234</t>
+  </si>
+  <si>
     <t>Twelve Twelve</t>
   </si>
   <si>
     <t>twelve@gmail.com</t>
   </si>
   <si>
+    <t>1212121212</t>
+  </si>
+  <si>
     <t>Twelve</t>
   </si>
   <si>
@@ -463,12 +613,24 @@
     <t>Leavenworth</t>
   </si>
   <si>
+    <t>98826</t>
+  </si>
+  <si>
+    <t>5519</t>
+  </si>
+  <si>
+    <t>4235</t>
+  </si>
+  <si>
     <t>Thirteen Thirteen</t>
   </si>
   <si>
     <t>thirteen@att.net</t>
   </si>
   <si>
+    <t>1313131313</t>
+  </si>
+  <si>
     <t>7.98</t>
   </si>
   <si>
@@ -481,15 +643,27 @@
     <t>Redding</t>
   </si>
   <si>
+    <t>96002</t>
+  </si>
+  <si>
     <t>Product ID: 121, Product Qty: 1, Product SKU: CARD_MedPyr, Product Name: Mediterranean Diet Pyramid Card, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 3.99, Product Total Price: 3.99</t>
   </si>
   <si>
+    <t>5521</t>
+  </si>
+  <si>
+    <t>4236</t>
+  </si>
+  <si>
     <t>Fourteen Fourteen</t>
   </si>
   <si>
     <t>fourteen@yahoo.com</t>
   </si>
   <si>
+    <t>1414141414</t>
+  </si>
+  <si>
     <t>13/01/2019</t>
   </si>
   <si>
@@ -502,12 +676,24 @@
     <t>San Diego</t>
   </si>
   <si>
+    <t>92109</t>
+  </si>
+  <si>
+    <t>5523</t>
+  </si>
+  <si>
+    <t>4238</t>
+  </si>
+  <si>
     <t>Fifteen Fifteen</t>
   </si>
   <si>
     <t>fifteen@gmail.com</t>
   </si>
   <si>
+    <t>1515151515</t>
+  </si>
+  <si>
     <t>Fifteen</t>
   </si>
   <si>
@@ -520,18 +706,33 @@
     <t>NY</t>
   </si>
   <si>
+    <t>11232</t>
+  </si>
+  <si>
+    <t>5525</t>
+  </si>
+  <si>
+    <t>4239</t>
+  </si>
+  <si>
     <t>Sixteen Sixteen</t>
   </si>
   <si>
     <t>sixteen@gmail.com</t>
   </si>
   <si>
+    <t>1616161616</t>
+  </si>
+  <si>
     <t>37.97</t>
   </si>
   <si>
     <t>44.96</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>3.68</t>
   </si>
   <si>
@@ -547,15 +748,27 @@
     <t>AZ</t>
   </si>
   <si>
+    <t>85748</t>
+  </si>
+  <si>
     <t>Product ID: 124, Product Qty: 1, Product SKU: OTH_MedGrocList, Product Name: Mediterranean Diet Grocery List Pad, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 7.99, Product Total Price: 7.99|Product ID: 127, Product Qty: 1, Product SKU: BK_MedMenu, Product Name: Oldways 4-Week Mediterranean Diet Menu Plan Book, Product Weight: 0.8000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99|Product ID: 146, Product Qty: 1, Product SKU: BK_12WAYS, Product Name: 12 Ways To Use Vegetables, Product Weight: 0.7000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
   </si>
   <si>
+    <t>5526</t>
+  </si>
+  <si>
+    <t>4240</t>
+  </si>
+  <si>
     <t>Seventeen Seventeen</t>
   </si>
   <si>
     <t>seventeen@cox.net</t>
   </si>
   <si>
+    <t>1717171717</t>
+  </si>
+  <si>
     <t>Seventeen</t>
   </si>
   <si>
@@ -568,12 +781,24 @@
     <t>KS</t>
   </si>
   <si>
+    <t>66606</t>
+  </si>
+  <si>
+    <t>5527</t>
+  </si>
+  <si>
+    <t>4241</t>
+  </si>
+  <si>
     <t>Eighteen Eighteen</t>
   </si>
   <si>
     <t>eighteen@comcast.net</t>
   </si>
   <si>
+    <t>1818181818</t>
+  </si>
+  <si>
     <t>Eighteen</t>
   </si>
   <si>
@@ -586,12 +811,24 @@
     <t>TN</t>
   </si>
   <si>
+    <t>37027</t>
+  </si>
+  <si>
+    <t>5528</t>
+  </si>
+  <si>
+    <t>4242</t>
+  </si>
+  <si>
     <t>Nineteen Nineteen</t>
   </si>
   <si>
     <t>nineteen@gmail.com</t>
   </si>
   <si>
+    <t>1919191919</t>
+  </si>
+  <si>
     <t>Nineteen</t>
   </si>
   <si>
@@ -601,12 +838,24 @@
     <t>Agoura Hills</t>
   </si>
   <si>
+    <t>91301</t>
+  </si>
+  <si>
+    <t>5530</t>
+  </si>
+  <si>
+    <t>4243</t>
+  </si>
+  <si>
     <t>Twenty Twenty</t>
   </si>
   <si>
     <t>twenty@gmail.com</t>
   </si>
   <si>
+    <t>2020202020</t>
+  </si>
+  <si>
     <t>28.97</t>
   </si>
   <si>
@@ -625,15 +874,27 @@
     <t>IL</t>
   </si>
   <si>
+    <t>60174</t>
+  </si>
+  <si>
     <t>Product ID: 121, Product Qty: 1, Product SKU: CARD_MedPyr, Product Name: Mediterranean Diet Pyramid Card, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 3.99, Product Total Price: 3.99|Product ID: 125, Product Qty: 1, Product SKU: OTH_MedMagnet, Product Name: Mediterranean Diet Pyramid Refrigerator Magnet, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 4.99, Product Total Price: 4.99|Product ID: 136, Product Qty: 1, Product SKU: BU_MedBundle, Product Name: Mediterranean Diet Discount Bundle, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 19.99, Product Total Price: 19.99</t>
   </si>
   <si>
+    <t>4787</t>
+  </si>
+  <si>
+    <t>3630</t>
+  </si>
+  <si>
     <t>Customer One</t>
   </si>
   <si>
     <t>customer@one.com</t>
   </si>
   <si>
+    <t>21212121212</t>
+  </si>
+  <si>
     <t>05/10/2018</t>
   </si>
   <si>
@@ -644,6 +905,9 @@
   </si>
   <si>
     <t>94.95</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>10/10/2018</t>
@@ -664,13 +928,25 @@
     <t>Los Angeles</t>
   </si>
   <si>
+    <t>90044</t>
+  </si>
+  <si>
     <t>Product ID: 107, Product Qty: 1, Product SKU: POS_LatPyr, Product Name: Latin American Diet Pyramid Poster, Product Weight: 0.5000, Product Variation Details: , Product Unit Price: 19.99, Product Total Price: 19.99|Product ID: 112, Product Qty: 1, Product SKU: BRO_Afr, Product Name: Welcome to the African Heritage Diet Trifold Brochure (100 pcs), Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 29.99, Product Total Price: 29.99|Product ID: 129, Product Qty: 1, Product SKU: POS_AfrPyr, Product Name: African Heritage Diet Pyramid Poster, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 19.99, Product Total Price: 19.99|Product ID: 145, Product Qty: 1, Product SKU: BK_E12WAYS, Product Name: 12 Ways To Use Vegetables E-Book, Product Weight: 0.0000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
   </si>
   <si>
+    <t>4789</t>
+  </si>
+  <si>
+    <t>3632</t>
+  </si>
+  <si>
     <t>Customer Two</t>
   </si>
   <si>
     <t>Customer@two.com</t>
+  </si>
+  <si>
+    <t>3131313131</t>
   </si>
   <si>
     <t>23.97</t>
@@ -689,15 +965,27 @@
     <t>Indianapolis</t>
   </si>
   <si>
+    <t>46268</t>
+  </si>
+  <si>
     <t>Product ID: 121, Product Qty: 1, Product SKU: CARD_MedPyr, Product Name: Mediterranean Diet Pyramid Card, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 3.99, Product Total Price: 3.99|Product ID: 125, Product Qty: 1, Product SKU: OTH_MedMagnet, Product Name: Mediterranean Diet Pyramid Refrigerator Magnet, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 4.99, Product Total Price: 4.99|Product ID: 127, Product Qty: 1, Product SKU: BK_MedMenu, Product Name: Oldways 4-Week Mediterranean Diet Menu Plan Book, Product Weight: 0.8000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
   </si>
   <si>
+    <t>5568</t>
+  </si>
+  <si>
+    <t>4273</t>
+  </si>
+  <si>
     <t>Customer Three</t>
   </si>
   <si>
     <t>customer@three.com</t>
   </si>
   <si>
+    <t>41414141414</t>
+  </si>
+  <si>
     <t>22.97</t>
   </si>
   <si>
@@ -705,6 +993,9 @@
   </si>
   <si>
     <t>Hanford</t>
+  </si>
+  <si>
+    <t>93230</t>
   </si>
   <si>
     <t>Product ID: 121, Product Qty: 1, Product SKU: CARD_MedPyr, Product Name: Mediterranean Diet Pyramid Card, Product Weight: 1.0000, Product Variation Details: , Product Unit Price: 3.99, Product Total Price: 3.99|Product ID: 127, Product Qty: 1, Product SKU: BK_MedMenu, Product Name: Oldways 4-Week Mediterranean Diet Menu Plan Book, Product Weight: 0.8000, Product Variation Details: , Product Unit Price: 14.99, Product Total Price: 14.99</t>
@@ -1210,2989 +1501,2989 @@
       </c>
     </row>
     <row r="2" spans="1:54">
-      <c r="A2">
-        <v>5505</v>
-      </c>
-      <c r="B2">
-        <v>4224</v>
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2">
-        <v>1111111111</v>
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
+      <c r="AK2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG2">
-        <v>3110</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI2">
-        <v>1111111111</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR2">
-        <v>3110</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT2">
-        <v>1111111111</v>
-      </c>
       <c r="AU2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AV2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:54">
-      <c r="A3">
-        <v>5506</v>
-      </c>
-      <c r="B3">
-        <v>4225</v>
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3">
-        <v>2222222222</v>
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R3" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>69</v>
       </c>
       <c r="Z3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH3" t="s">
         <v>76</v>
       </c>
-      <c r="AE3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG3">
-        <v>30004</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI3">
-        <v>2222222222</v>
+      <c r="AI3" t="s">
+        <v>82</v>
       </c>
       <c r="AJ3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT3">
-        <v>2222222222</v>
+        <v>86</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>82</v>
       </c>
       <c r="AU3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AV3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:54">
-      <c r="A4">
-        <v>5507</v>
-      </c>
-      <c r="B4">
-        <v>4226</v>
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4">
-        <v>3333333333</v>
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
       </c>
       <c r="Z4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AE4" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4">
-        <v>84332</v>
+        <v>99</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>100</v>
       </c>
       <c r="AH4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI4">
-        <v>3333333333</v>
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>95</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AL4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AN4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT4">
-        <v>3333333333</v>
+        <v>97</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>95</v>
       </c>
       <c r="AU4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AV4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:54">
-      <c r="A5">
-        <v>5508</v>
-      </c>
-      <c r="B5">
-        <v>4227</v>
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5">
-        <v>4444444444</v>
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" t="s">
+        <v>62</v>
       </c>
       <c r="U5" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
       </c>
       <c r="X5" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AA5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AC5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AE5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="AF5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG5">
-        <v>98225</v>
+        <v>114</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>115</v>
       </c>
       <c r="AH5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5">
-        <v>4444444444</v>
+        <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>105</v>
       </c>
       <c r="AJ5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AL5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AN5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AP5" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="AQ5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR5">
-        <v>98225</v>
+        <v>114</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>115</v>
       </c>
       <c r="AS5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT5">
-        <v>4444444444</v>
+        <v>76</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>105</v>
       </c>
       <c r="AU5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AV5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:54">
-      <c r="A6">
-        <v>5509</v>
-      </c>
-      <c r="B6">
-        <v>4228</v>
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6">
-        <v>5555555555</v>
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q6" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" t="s">
+        <v>62</v>
       </c>
       <c r="U6" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AA6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AC6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="AE6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AF6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG6">
-        <v>46530</v>
+        <v>126</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>127</v>
       </c>
       <c r="AH6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI6">
-        <v>5555555555</v>
+        <v>76</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>121</v>
       </c>
       <c r="AJ6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AL6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AN6" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="AP6" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AQ6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR6">
-        <v>46530</v>
+        <v>126</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>127</v>
       </c>
       <c r="AS6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT6">
-        <v>5555555555</v>
+        <v>76</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>121</v>
       </c>
       <c r="AU6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="AV6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7">
-        <v>5511</v>
-      </c>
-      <c r="B7">
-        <v>4229</v>
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7">
-        <v>6666666666</v>
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R7" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" t="s">
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W7" t="s">
+        <v>69</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AA7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AC7" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="AF7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG7">
-        <v>92028</v>
+        <v>137</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>138</v>
       </c>
       <c r="AH7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI7">
-        <v>6666666666</v>
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>133</v>
       </c>
       <c r="AJ7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AL7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="AN7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT7">
-        <v>6666666666</v>
+        <v>135</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>133</v>
       </c>
       <c r="AU7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="AV7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8">
-        <v>5512</v>
-      </c>
-      <c r="B8">
-        <v>4230</v>
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8">
-        <v>7777777777</v>
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
       </c>
       <c r="P8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" t="s">
+        <v>62</v>
       </c>
       <c r="U8" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V8" t="s">
-        <v>63</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W8" t="s">
+        <v>69</v>
       </c>
       <c r="X8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AA8" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AC8" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AE8" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AF8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG8">
-        <v>94010</v>
+        <v>137</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>149</v>
       </c>
       <c r="AH8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI8">
-        <v>7777777777</v>
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>143</v>
       </c>
       <c r="AJ8" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="AK8" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AL8" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="AN8" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="AP8" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AQ8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR8">
-        <v>94010</v>
+        <v>137</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>149</v>
       </c>
       <c r="AS8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT8">
-        <v>7777777777</v>
+        <v>76</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>143</v>
       </c>
       <c r="AU8" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="AV8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9">
-        <v>5513</v>
-      </c>
-      <c r="B9">
-        <v>4231</v>
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9">
-        <v>8888888888</v>
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q9" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="R9" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" t="s">
+        <v>62</v>
       </c>
       <c r="U9" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V9" t="s">
-        <v>63</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W9" t="s">
+        <v>69</v>
       </c>
       <c r="X9" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z9" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AA9" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="AF9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG9">
-        <v>27958</v>
+        <v>158</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>159</v>
       </c>
       <c r="AH9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI9">
-        <v>8888888888</v>
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>154</v>
       </c>
       <c r="AJ9" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="AK9" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AL9" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="AN9" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="AP9" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="AQ9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR9">
-        <v>27958</v>
+        <v>158</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>159</v>
       </c>
       <c r="AS9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT9">
-        <v>8888888888</v>
+        <v>76</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>154</v>
       </c>
       <c r="AU9" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="AV9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10">
-        <v>5515</v>
-      </c>
-      <c r="B10">
-        <v>4232</v>
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10">
-        <v>9999999999</v>
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" t="s">
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>63</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
       </c>
       <c r="Z10" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AA10" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AC10" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="AE10" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="AF10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG10">
-        <v>73064</v>
+        <v>168</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>169</v>
       </c>
       <c r="AH10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI10">
-        <v>9999999999</v>
+        <v>76</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>164</v>
       </c>
       <c r="AJ10" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AK10" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AL10" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="AN10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT10">
-        <v>9999999999</v>
+        <v>166</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>164</v>
       </c>
       <c r="AU10" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AV10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11">
-        <v>5516</v>
-      </c>
-      <c r="B11">
-        <v>4233</v>
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11">
-        <v>1010101010</v>
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>69</v>
+      </c>
+      <c r="T11" t="s">
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W11" t="s">
+        <v>69</v>
       </c>
       <c r="Z11" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AA11" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AC11" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="AE11" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="AF11" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG11">
-        <v>75201</v>
+        <v>178</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>179</v>
       </c>
       <c r="AH11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI11">
-        <v>1010101010</v>
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>174</v>
       </c>
       <c r="AJ11" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AK11" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AL11" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AN11" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT11">
-        <v>1010101010</v>
+        <v>176</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>174</v>
       </c>
       <c r="AU11" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AV11" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12">
-        <v>5517</v>
-      </c>
-      <c r="B12">
-        <v>2343</v>
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12">
-        <v>5111111111</v>
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
       </c>
       <c r="P12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R12" t="s">
-        <v>62</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T12" t="s">
+        <v>62</v>
       </c>
       <c r="U12" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V12" t="s">
-        <v>63</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W12" t="s">
+        <v>69</v>
       </c>
       <c r="X12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Z12" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="AA12" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="AC12" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="AE12" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="AF12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG12">
-        <v>23505</v>
+        <v>188</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>189</v>
       </c>
       <c r="AH12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI12">
-        <v>5111111111</v>
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>184</v>
       </c>
       <c r="AJ12" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="AK12" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="AL12" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="AN12" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="AP12" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="AQ12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR12">
-        <v>23505</v>
+        <v>188</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>189</v>
       </c>
       <c r="AS12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT12">
-        <v>5111111111</v>
+        <v>76</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>184</v>
       </c>
       <c r="AU12" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="AV12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
+        <v>190</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13">
-        <v>5518</v>
-      </c>
-      <c r="B13">
-        <v>4234</v>
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
       </c>
       <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" t="s">
         <v>144</v>
       </c>
-      <c r="D13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13">
-        <v>1212121212</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF13" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" t="s">
-        <v>62</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG13">
-        <v>98826</v>
+      <c r="AG13" t="s">
+        <v>199</v>
       </c>
       <c r="AH13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI13">
-        <v>1212121212</v>
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>195</v>
       </c>
       <c r="AJ13" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="AK13" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="AL13" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="AN13" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT13">
-        <v>1212121212</v>
+        <v>197</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>195</v>
       </c>
       <c r="AU13" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="AV13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14">
-        <v>5519</v>
-      </c>
-      <c r="B14">
-        <v>4235</v>
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14">
-        <v>1313131313</v>
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>204</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="Q14" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="R14" t="s">
-        <v>62</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S14" t="s">
+        <v>69</v>
+      </c>
+      <c r="T14" t="s">
+        <v>62</v>
       </c>
       <c r="U14" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W14" t="s">
+        <v>69</v>
       </c>
       <c r="X14" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z14" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="AA14" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="AC14" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="AE14" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="AF14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG14">
-        <v>96002</v>
+        <v>137</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>209</v>
       </c>
       <c r="AH14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI14">
-        <v>1313131313</v>
+        <v>76</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>204</v>
       </c>
       <c r="AJ14" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="AK14" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="AL14" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="AN14" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="AP14" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="AQ14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR14">
-        <v>96002</v>
+        <v>137</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>209</v>
       </c>
       <c r="AS14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT14">
-        <v>1313131313</v>
+        <v>76</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>204</v>
       </c>
       <c r="AU14" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="AV14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15">
-        <v>5521</v>
-      </c>
-      <c r="B15">
-        <v>4236</v>
+      <c r="A15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15">
-        <v>1414141414</v>
+        <v>214</v>
+      </c>
+      <c r="E15" t="s">
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="R15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T15" t="s">
+        <v>62</v>
       </c>
       <c r="U15" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V15" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W15" t="s">
+        <v>69</v>
       </c>
       <c r="X15" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z15" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="AA15" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="AC15" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="AE15" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="AF15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG15">
-        <v>92109</v>
+        <v>137</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>220</v>
       </c>
       <c r="AH15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI15">
-        <v>1414141414</v>
+        <v>76</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>215</v>
       </c>
       <c r="AJ15" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="AK15" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="AL15" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="AN15" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="AP15" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="AQ15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR15">
-        <v>92109</v>
+        <v>137</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>220</v>
       </c>
       <c r="AS15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT15">
-        <v>1414141414</v>
+        <v>76</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>215</v>
       </c>
       <c r="AU15" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="AV15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:54">
-      <c r="A16">
-        <v>5523</v>
-      </c>
-      <c r="B16">
-        <v>4238</v>
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16">
-        <v>1515151515</v>
+        <v>224</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>62</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q16" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R16" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T16" t="s">
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>63</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W16" t="s">
+        <v>69</v>
       </c>
       <c r="Z16" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="AA16" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="AC16" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="AE16" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="AF16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG16">
-        <v>11232</v>
+        <v>229</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>230</v>
       </c>
       <c r="AH16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI16">
-        <v>1515151515</v>
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>225</v>
       </c>
       <c r="AJ16" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="AK16" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="AL16" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="AN16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT16">
-        <v>1515151515</v>
+        <v>227</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>225</v>
       </c>
       <c r="AU16" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="AV16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:54">
-      <c r="A17">
-        <v>5525</v>
-      </c>
-      <c r="B17">
-        <v>4239</v>
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17">
-        <v>1616161616</v>
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>236</v>
+      </c>
+      <c r="J17" t="s">
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="Q17" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="R17" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>238</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
       </c>
       <c r="U17" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V17" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W17" t="s">
+        <v>69</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="Z17" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="AA17" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="AC17" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="AE17" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="AF17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG17">
-        <v>85748</v>
+        <v>243</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>244</v>
       </c>
       <c r="AH17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI17">
-        <v>1616161616</v>
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>235</v>
       </c>
       <c r="AJ17" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="AK17" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="AL17" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="AN17" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="AP17" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="AQ17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR17">
-        <v>85748</v>
+        <v>243</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>244</v>
       </c>
       <c r="AS17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT17">
-        <v>1616161616</v>
+        <v>76</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>235</v>
       </c>
       <c r="AU17" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="AV17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:54">
-      <c r="A18">
-        <v>5526</v>
-      </c>
-      <c r="B18">
-        <v>4240</v>
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>247</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18">
-        <v>1717171717</v>
+        <v>249</v>
+      </c>
+      <c r="E18" t="s">
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>62</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
       </c>
       <c r="P18" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="R18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S18" t="s">
+        <v>69</v>
+      </c>
+      <c r="T18" t="s">
+        <v>62</v>
       </c>
       <c r="U18" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V18" t="s">
-        <v>63</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W18" t="s">
+        <v>69</v>
       </c>
       <c r="X18" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z18" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="AA18" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="AC18" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="AE18" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="AF18" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG18">
-        <v>66606</v>
+        <v>254</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>255</v>
       </c>
       <c r="AH18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI18">
-        <v>1717171717</v>
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>250</v>
       </c>
       <c r="AJ18" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="AK18" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="AL18" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="AN18" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="AP18" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
       <c r="AQ18" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR18">
-        <v>66606</v>
+        <v>254</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>255</v>
       </c>
       <c r="AS18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT18">
-        <v>1717171717</v>
+        <v>76</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>250</v>
       </c>
       <c r="AU18" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="AV18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:54">
-      <c r="A19">
-        <v>5527</v>
-      </c>
-      <c r="B19">
-        <v>4241</v>
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19">
-        <v>1818181818</v>
+        <v>259</v>
+      </c>
+      <c r="E19" t="s">
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J19" t="s">
+        <v>62</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
       </c>
       <c r="P19" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="R19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" t="s">
+        <v>62</v>
       </c>
       <c r="U19" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V19" t="s">
-        <v>63</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W19" t="s">
+        <v>69</v>
       </c>
       <c r="X19" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z19" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="AA19" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="AC19" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="AE19" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="AF19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG19">
-        <v>37027</v>
+        <v>264</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>265</v>
       </c>
       <c r="AH19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI19">
-        <v>1818181818</v>
+        <v>76</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>260</v>
       </c>
       <c r="AJ19" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AK19" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="AL19" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="AN19" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="AP19" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="AQ19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR19">
-        <v>37027</v>
+        <v>264</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>265</v>
       </c>
       <c r="AS19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT19">
-        <v>1818181818</v>
+        <v>76</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>260</v>
       </c>
       <c r="AU19" t="s">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AV19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW19">
-        <v>0</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:54">
-      <c r="A20">
-        <v>5528</v>
-      </c>
-      <c r="B20">
-        <v>4242</v>
+      <c r="A20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20">
-        <v>1919191919</v>
+        <v>269</v>
+      </c>
+      <c r="E20" t="s">
+        <v>270</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="s">
+        <v>62</v>
       </c>
       <c r="P20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Q20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
-        <v>62</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S20" t="s">
+        <v>69</v>
+      </c>
+      <c r="T20" t="s">
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>63</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W20" t="s">
+        <v>69</v>
       </c>
       <c r="Z20" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="AA20" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="AC20" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="AE20" t="s">
-        <v>194</v>
+        <v>273</v>
       </c>
       <c r="AF20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG20">
-        <v>91301</v>
+        <v>137</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>274</v>
       </c>
       <c r="AH20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI20">
-        <v>1919191919</v>
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>270</v>
       </c>
       <c r="AJ20" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="AK20" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="AL20" t="s">
-        <v>192</v>
+        <v>271</v>
       </c>
       <c r="AN20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AT20">
-        <v>1919191919</v>
+        <v>272</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>270</v>
       </c>
       <c r="AU20" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="AV20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW20">
-        <v>0</v>
-      </c>
-      <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:54">
-      <c r="A21">
-        <v>5530</v>
-      </c>
-      <c r="B21">
-        <v>4243</v>
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21">
-        <v>2020202020</v>
+        <v>278</v>
+      </c>
+      <c r="E21" t="s">
+        <v>279</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>280</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="Q21" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="R21" t="s">
-        <v>62</v>
-      </c>
-      <c r="S21">
-        <v>3</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S21" t="s">
+        <v>238</v>
+      </c>
+      <c r="T21" t="s">
+        <v>62</v>
       </c>
       <c r="U21" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="V21" t="s">
-        <v>63</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W21" t="s">
+        <v>69</v>
       </c>
       <c r="X21" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Z21" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="AA21" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="AC21" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="AE21" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="AF21" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG21">
-        <v>60174</v>
+        <v>285</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>286</v>
       </c>
       <c r="AH21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI21">
-        <v>2020202020</v>
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>279</v>
       </c>
       <c r="AJ21" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="AK21" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="AL21" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="AN21" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="AP21" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="AQ21" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR21">
-        <v>60174</v>
+        <v>285</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>286</v>
       </c>
       <c r="AS21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT21">
-        <v>2020202020</v>
+        <v>76</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>279</v>
       </c>
       <c r="AU21" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="AV21" t="s">
-        <v>203</v>
-      </c>
-      <c r="AW21">
-        <v>0</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:54">
-      <c r="A22">
-        <v>4787</v>
-      </c>
-      <c r="B22">
-        <v>3630</v>
+      <c r="A22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" t="s">
+        <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22">
-        <v>21212121212</v>
+        <v>291</v>
+      </c>
+      <c r="E22" t="s">
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>294</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="Q22" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
-      </c>
-      <c r="S22">
-        <v>4</v>
-      </c>
-      <c r="T22">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="S22" t="s">
+        <v>297</v>
+      </c>
+      <c r="T22" t="s">
+        <v>238</v>
       </c>
       <c r="U22" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="V22" t="s">
-        <v>63</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W22" t="s">
+        <v>69</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="Z22" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AA22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AC22" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="AF22" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG22">
-        <v>90044</v>
+        <v>137</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>303</v>
       </c>
       <c r="AH22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI22">
-        <v>21212121212</v>
+        <v>76</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>292</v>
       </c>
       <c r="AJ22" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="AK22" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AL22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AN22" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AP22" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="AQ22" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR22">
-        <v>90044</v>
-      </c>
-      <c r="AT22">
-        <v>21212121212</v>
+        <v>137</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>292</v>
       </c>
       <c r="AU22" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="AV22" t="s">
-        <v>215</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
+        <v>304</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:54">
-      <c r="A23">
-        <v>4789</v>
-      </c>
-      <c r="B23">
-        <v>3632</v>
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>307</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23">
-        <v>3131313131</v>
+        <v>308</v>
+      </c>
+      <c r="E23" t="s">
+        <v>309</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>310</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N23" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="Q23" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="R23" t="s">
-        <v>62</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S23" t="s">
+        <v>238</v>
+      </c>
+      <c r="T23" t="s">
+        <v>62</v>
       </c>
       <c r="U23" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W23" t="s">
+        <v>69</v>
       </c>
       <c r="X23" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="Z23" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AA23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AC23" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="AE23" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="AF23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG23">
-        <v>46268</v>
+        <v>126</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>315</v>
       </c>
       <c r="AH23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI23">
-        <v>3131313131</v>
+        <v>76</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>309</v>
       </c>
       <c r="AJ23" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="AK23" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AL23" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN23" t="s">
-        <v>221</v>
+        <v>313</v>
       </c>
       <c r="AP23" t="s">
-        <v>222</v>
+        <v>314</v>
       </c>
       <c r="AQ23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR23">
-        <v>46268</v>
-      </c>
-      <c r="AT23">
-        <v>3131313131</v>
+        <v>126</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>315</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>309</v>
       </c>
       <c r="AU23" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
       <c r="AV23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AW23">
-        <v>0</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:54">
-      <c r="A24">
-        <v>5568</v>
-      </c>
-      <c r="B24">
-        <v>4273</v>
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" t="s">
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24">
-        <v>41414141414</v>
+        <v>320</v>
+      </c>
+      <c r="E24" t="s">
+        <v>321</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="M24" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="N24" t="s">
+        <v>62</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
       </c>
       <c r="P24" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="Q24" t="s">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="R24" t="s">
-        <v>62</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="S24" t="s">
+        <v>67</v>
+      </c>
+      <c r="T24" t="s">
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W24" t="s">
+        <v>69</v>
       </c>
       <c r="Z24" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AA24" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AC24" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="AE24" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="AF24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG24">
-        <v>93230</v>
+        <v>137</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>325</v>
       </c>
       <c r="AH24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI24">
-        <v>41414141414</v>
+        <v>76</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>321</v>
       </c>
       <c r="AJ24" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="AK24" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="AL24" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AN24" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="AP24" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="AQ24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR24">
-        <v>93230</v>
-      </c>
-      <c r="AT24">
-        <v>41414141414</v>
+        <v>137</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>325</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>321</v>
       </c>
       <c r="AU24" t="s">
-        <v>225</v>
+        <v>320</v>
       </c>
       <c r="AV24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
+        <v>326</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
